--- a/scraper/top_remaining_spreadsheets_states/top_remaining_VA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_VA.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">WEEKLY HALF GRAND                                 </t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t xml:space="preserve">BANKROLL BONUS                                    </t>
@@ -113,15 +113,15 @@
     <t xml:space="preserve">MONEY BAG DOUBLER                                 </t>
   </si>
   <si>
+    <t xml:space="preserve">CA$H MATCH                                        </t>
+  </si>
+  <si>
     <t>5X THE MONEY</t>
   </si>
   <si>
     <t xml:space="preserve">WEEKLY GRAND                                      </t>
   </si>
   <si>
-    <t xml:space="preserve">CA$H MATCH                                        </t>
-  </si>
-  <si>
     <t>CHOCOLATE</t>
   </si>
   <si>
@@ -140,12 +140,12 @@
     <t>BONUS WORD CROSSWORD</t>
   </si>
   <si>
+    <t>7X THE MONEY</t>
+  </si>
+  <si>
     <t>BLOCKBUSTER CROSSWORD</t>
   </si>
   <si>
-    <t>7X THE MONEY</t>
-  </si>
-  <si>
     <t>BINGO MULTIPLIER</t>
   </si>
   <si>
@@ -176,12 +176,12 @@
     <t xml:space="preserve">WEEKLY TWO GRAND                                  </t>
   </si>
   <si>
+    <t xml:space="preserve">$100 LARGE                                        </t>
+  </si>
+  <si>
     <t>$250,000 FORTUNE</t>
   </si>
   <si>
-    <t xml:space="preserve">$100 LARGE                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">MONOPOLY MULTIPLIER                               </t>
   </si>
   <si>
@@ -191,27 +191,27 @@
     <t>$250,000 CASH</t>
   </si>
   <si>
+    <t>ROYAL RICHES</t>
+  </si>
+  <si>
     <t>WIN A SPIN</t>
   </si>
   <si>
     <t>$255,555 BONUS CASH</t>
   </si>
   <si>
-    <t>ROYAL RICHES</t>
-  </si>
-  <si>
     <t>EXTREME CASH</t>
   </si>
   <si>
     <t>CASH MULTIPLIER</t>
   </si>
   <si>
+    <t>WINTER LUCK</t>
+  </si>
+  <si>
     <t>$500 WINFALL</t>
   </si>
   <si>
-    <t>WINTER LUCK</t>
-  </si>
-  <si>
     <t>SUPER CASH</t>
   </si>
   <si>
@@ -239,25 +239,25 @@
     <t>$32,000,000 CASH PAYOUT</t>
   </si>
   <si>
+    <t xml:space="preserve">GOLDEN NUGGET                                     </t>
+  </si>
+  <si>
     <t>Gold Bar Bonanza</t>
   </si>
   <si>
-    <t xml:space="preserve">GOLDEN NUGGET                                     </t>
-  </si>
-  <si>
     <t>$1,000,000 JACKPOT MULTIPLIER</t>
   </si>
   <si>
+    <t>$10,000 BONUS</t>
+  </si>
+  <si>
+    <t>WIN EITHER $50 OR $100</t>
+  </si>
+  <si>
+    <t>$30 MILLION CASH OUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">20X THE MONEY                                     </t>
-  </si>
-  <si>
-    <t>$10,000 BONUS</t>
-  </si>
-  <si>
-    <t>WIN EITHER $50 OR $100</t>
-  </si>
-  <si>
-    <t>$30 MILLION CASH OUT</t>
   </si>
   <si>
     <t>$1,000,000 HIGH ROLLERS CLUB</t>
@@ -708,14 +708,14 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>2019</v>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>1924</v>
+        <v>1605</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -728,14 +728,14 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4">
+        <v>2019</v>
       </c>
       <c r="D4">
-        <v>1605</v>
+        <v>1968</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -752,10 +752,10 @@
         <v>2019</v>
       </c>
       <c r="D5">
-        <v>1968</v>
+        <v>1924</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -775,7 +775,7 @@
         <v>1940</v>
       </c>
       <c r="E6">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -795,7 +795,7 @@
         <v>1945</v>
       </c>
       <c r="E7">
-        <v>1728</v>
+        <v>1712</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1189,10 +1189,10 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>1918</v>
+        <v>1833</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -1209,13 +1209,13 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1232,10 +1232,10 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>1835</v>
+        <v>1916</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1252,10 +1252,10 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1269,7 +1269,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>1867</v>
@@ -1392,10 +1392,10 @@
         <v>41</v>
       </c>
       <c r="D37">
-        <v>1856</v>
+        <v>1946</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1412,10 +1412,10 @@
         <v>42</v>
       </c>
       <c r="D38">
-        <v>1946</v>
+        <v>1856</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1429,7 +1429,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39">
         <v>1857</v>
@@ -1492,10 +1492,10 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>1894</v>
+        <v>1790</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1509,13 +1509,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>1790</v>
+        <v>1760</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1529,13 +1529,13 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44">
-        <v>1760</v>
+        <v>1676</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1549,13 +1549,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>1676</v>
+        <v>1894</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1652,7 +1652,7 @@
         <v>53</v>
       </c>
       <c r="D50">
-        <v>1921</v>
+        <v>1935</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -1672,7 +1672,7 @@
         <v>54</v>
       </c>
       <c r="D51">
-        <v>1935</v>
+        <v>1921</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -1752,10 +1752,10 @@
         <v>58</v>
       </c>
       <c r="D55">
-        <v>1902</v>
+        <v>1926</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1772,10 +1772,10 @@
         <v>59</v>
       </c>
       <c r="D56">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1792,10 +1792,10 @@
         <v>60</v>
       </c>
       <c r="D57">
-        <v>1926</v>
+        <v>1898</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1872,10 +1872,10 @@
         <v>63</v>
       </c>
       <c r="D61">
-        <v>1823</v>
+        <v>1919</v>
       </c>
       <c r="E61">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1892,10 +1892,10 @@
         <v>64</v>
       </c>
       <c r="D62">
-        <v>1919</v>
+        <v>1823</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2072,10 +2072,10 @@
         <v>74</v>
       </c>
       <c r="D71">
-        <v>1771</v>
+        <v>1932</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2092,10 +2092,10 @@
         <v>75</v>
       </c>
       <c r="D72">
-        <v>1932</v>
+        <v>1771</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2132,10 +2132,10 @@
         <v>77</v>
       </c>
       <c r="D74">
-        <v>1961</v>
+        <v>1910</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2152,10 +2152,10 @@
         <v>78</v>
       </c>
       <c r="D75">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="E75">
-        <v>73</v>
+        <v>8955</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2172,10 +2172,10 @@
         <v>79</v>
       </c>
       <c r="D76">
-        <v>1912</v>
+        <v>1863</v>
       </c>
       <c r="E76">
-        <v>11098</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2192,10 +2192,10 @@
         <v>80</v>
       </c>
       <c r="D77">
-        <v>1863</v>
+        <v>1961</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2415,7 +2415,7 @@
         <v>1899</v>
       </c>
       <c r="E88">
-        <v>67296</v>
+        <v>64372</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
@@ -2535,7 +2535,7 @@
         <v>1777</v>
       </c>
       <c r="E94">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_VA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_VA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>STATE</t>
   </si>
@@ -41,31 +41,37 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEEKLY HALF GRAND                                 </t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>BLACKJACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOADED WITH $100 PRIZES!                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WERE GAME FOR EDUCATION                           </t>
   </si>
   <si>
     <t xml:space="preserve">BANKROLL BONUS                                    </t>
   </si>
   <si>
-    <t>BLACKJACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WERE GAME FOR EDUCATION                           </t>
+    <t xml:space="preserve">BEGINNER'S LUCK                                   </t>
+  </si>
+  <si>
+    <t>2X THE MONEY</t>
+  </si>
+  <si>
+    <t>DEUCES WILD</t>
   </si>
   <si>
     <t>EZ $1040</t>
   </si>
   <si>
-    <t>DEUCES WILD</t>
-  </si>
-  <si>
-    <t>2X THE MONEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEGINNER'S LUCK                                   </t>
+    <t>2019-04-03</t>
   </si>
   <si>
     <t>STRAIGHT 8S</t>
@@ -86,48 +92,51 @@
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>FIND THE 9S</t>
+  </si>
+  <si>
+    <t>Triple Your Money</t>
+  </si>
+  <si>
     <t>QUICK $100</t>
   </si>
   <si>
-    <t>FIND THE 9S</t>
+    <t>CREEPY CASH</t>
   </si>
   <si>
     <t>LUCKY 13</t>
   </si>
   <si>
-    <t>Triple Your Money</t>
-  </si>
-  <si>
-    <t>CREEPY CASH</t>
+    <t>PAC-MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONEY BAG DOUBLER                                 </t>
   </si>
   <si>
     <t>DIAMOND MULTIPLIER</t>
   </si>
   <si>
-    <t>PAC-MAN</t>
-  </si>
-  <si>
     <t>GINGERBREAD DOUBLER</t>
   </si>
   <si>
-    <t xml:space="preserve">MONEY BAG DOUBLER                                 </t>
+    <t>5X THE MONEY</t>
   </si>
   <si>
     <t xml:space="preserve">CA$H MATCH                                        </t>
   </si>
   <si>
-    <t>5X THE MONEY</t>
-  </si>
-  <si>
     <t xml:space="preserve">WEEKLY GRAND                                      </t>
   </si>
   <si>
+    <t xml:space="preserve">Loaded with $200 Prizes!                          </t>
+  </si>
+  <si>
+    <t>CASH PAYOUT</t>
+  </si>
+  <si>
     <t>CHOCOLATE</t>
   </si>
   <si>
-    <t>CASH PAYOUT</t>
-  </si>
-  <si>
     <t>$55,555 BONUS CASH</t>
   </si>
   <si>
@@ -137,15 +146,18 @@
     <t>CASH MULTIPLIER CROSSWORD</t>
   </si>
   <si>
+    <t xml:space="preserve">COMBO PLAY                                        </t>
+  </si>
+  <si>
     <t>BONUS WORD CROSSWORD</t>
   </si>
   <si>
+    <t>BLOCKBUSTER CROSSWORD</t>
+  </si>
+  <si>
     <t>7X THE MONEY</t>
   </si>
   <si>
-    <t>BLOCKBUSTER CROSSWORD</t>
-  </si>
-  <si>
     <t>BINGO MULTIPLIER</t>
   </si>
   <si>
@@ -167,63 +179,66 @@
     <t>SUPER BONUS CROSSWORD</t>
   </si>
   <si>
+    <t xml:space="preserve">FORD EXPEDITION PLUS $100K                        </t>
+  </si>
+  <si>
     <t>$16,000,000 CASH PAYOUT</t>
   </si>
   <si>
-    <t xml:space="preserve">FORD EXPEDITION PLUS $100K                        </t>
+    <t>ROYAL RICHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10X THE MONEY                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loaded with $500 Prizes!                          </t>
+  </si>
+  <si>
+    <t>WIN A SPIN</t>
+  </si>
+  <si>
+    <t>$255,555 BONUS CASH</t>
+  </si>
+  <si>
+    <t>$250,000 CASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONOPOLY MULTIPLIER                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$100 LARGE                                        </t>
   </si>
   <si>
     <t xml:space="preserve">WEEKLY TWO GRAND                                  </t>
   </si>
   <si>
-    <t xml:space="preserve">$100 LARGE                                        </t>
+    <t>EXTREME CASH</t>
+  </si>
+  <si>
+    <t>CASH MULTIPLIER</t>
+  </si>
+  <si>
+    <t>WINTER LUCK</t>
   </si>
   <si>
     <t>$250,000 FORTUNE</t>
   </si>
   <si>
-    <t xml:space="preserve">MONOPOLY MULTIPLIER                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10X THE MONEY                                     </t>
-  </si>
-  <si>
-    <t>$250,000 CASH</t>
-  </si>
-  <si>
-    <t>ROYAL RICHES</t>
-  </si>
-  <si>
-    <t>WIN A SPIN</t>
-  </si>
-  <si>
-    <t>$255,555 BONUS CASH</t>
-  </si>
-  <si>
-    <t>EXTREME CASH</t>
-  </si>
-  <si>
-    <t>CASH MULTIPLIER</t>
-  </si>
-  <si>
-    <t>WINTER LUCK</t>
+    <t>CASH MONEY</t>
+  </si>
+  <si>
+    <t>SUPER CASH</t>
+  </si>
+  <si>
+    <t>INSTANT JACKPOT</t>
+  </si>
+  <si>
+    <t>POWER5S</t>
   </si>
   <si>
     <t>$500 WINFALL</t>
   </si>
   <si>
-    <t>SUPER CASH</t>
-  </si>
-  <si>
-    <t>CASH MONEY</t>
-  </si>
-  <si>
-    <t>INSTANT JACKPOT</t>
-  </si>
-  <si>
-    <t>POWER5S</t>
-  </si>
-  <si>
     <t>BIG MONEY MAKER</t>
   </si>
   <si>
@@ -236,67 +251,70 @@
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>Gold Bar Bonanza</t>
+  </si>
+  <si>
     <t>$32,000,000 CASH PAYOUT</t>
   </si>
   <si>
     <t xml:space="preserve">GOLDEN NUGGET                                     </t>
   </si>
   <si>
-    <t>Gold Bar Bonanza</t>
+    <t xml:space="preserve">Loaded with $1,000 Prizes!                        </t>
+  </si>
+  <si>
+    <t>$30 MILLION CASH OUT</t>
+  </si>
+  <si>
+    <t>WIN EITHER $50 OR $100</t>
   </si>
   <si>
     <t>$1,000,000 JACKPOT MULTIPLIER</t>
   </si>
   <si>
+    <t xml:space="preserve">20X THE MONEY                                     </t>
+  </si>
+  <si>
     <t>$10,000 BONUS</t>
   </si>
   <si>
-    <t>WIN EITHER $50 OR $100</t>
-  </si>
-  <si>
-    <t>$30 MILLION CASH OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20X THE MONEY                                     </t>
-  </si>
-  <si>
     <t>$1,000,000 HIGH ROLLERS CLUB</t>
   </si>
   <si>
     <t>$1,000,000 Series</t>
   </si>
   <si>
+    <t>20X THE MONEY</t>
+  </si>
+  <si>
     <t>BLAZING HOT 7S</t>
   </si>
   <si>
-    <t>20X THE MONEY</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
     <t>$4,000,000 SPECTACULAR RICHES</t>
   </si>
   <si>
+    <t>$250 000 Money Mania</t>
+  </si>
+  <si>
+    <t>Jewel 7s Playbook</t>
+  </si>
+  <si>
+    <t>$30,000 CASH PARTY</t>
+  </si>
+  <si>
+    <t>$3,500,000 ULTIMATE MILLIONS</t>
+  </si>
+  <si>
+    <t>SUPER CASH FRENZY</t>
+  </si>
+  <si>
+    <t>WIN EITHER $100 OR $200</t>
+  </si>
+  <si>
     <t>50X THE MONEY</t>
-  </si>
-  <si>
-    <t>$250 000 Money Mania</t>
-  </si>
-  <si>
-    <t>Jewel 7s Playbook</t>
-  </si>
-  <si>
-    <t>$30,000 CASH PARTY</t>
-  </si>
-  <si>
-    <t>$3,500,000 ULTIMATE MILLIONS</t>
-  </si>
-  <si>
-    <t>WIN EITHER $100 OR $200</t>
-  </si>
-  <si>
-    <t>SUPER CASH FRENZY</t>
   </si>
   <si>
     <t>HOT MILLIONS MULTIPLIER</t>
@@ -653,7 +671,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,17 +706,17 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>2019</v>
       </c>
       <c r="D2">
-        <v>1834</v>
+        <v>1968</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -709,16 +727,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>1605</v>
+        <v>1834</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -728,17 +746,17 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>2019</v>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1968</v>
+        <v>1940</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -758,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -772,13 +790,13 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="E6">
-        <v>108</v>
+        <v>2351</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -795,10 +813,10 @@
         <v>1945</v>
       </c>
       <c r="E7">
-        <v>1712</v>
+        <v>1675</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -812,13 +830,13 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>1814</v>
+        <v>1605</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -832,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1572</v>
+        <v>1970</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -858,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -872,13 +890,13 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>1970</v>
+        <v>1572</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -892,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>1908</v>
+        <v>1814</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -909,16 +927,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>1742</v>
+        <v>1908</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -929,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>1859</v>
@@ -938,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -949,16 +967,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>1917</v>
+        <v>1742</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -969,16 +987,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>1832</v>
+        <v>1917</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -989,16 +1007,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>1896</v>
+        <v>1832</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1006,19 +1024,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
       <c r="D18">
-        <v>1798</v>
+        <v>1896</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1026,10 +1044,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>1914</v>
@@ -1038,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1046,19 +1064,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>1820</v>
+        <v>1788</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1066,19 +1084,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1086,10 +1104,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>1904</v>
@@ -1098,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1106,19 +1124,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>1928</v>
+        <v>1820</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1126,10 +1144,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>1925</v>
@@ -1138,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1146,19 +1164,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>1962</v>
+        <v>1930</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1166,19 +1184,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1186,19 +1204,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>1833</v>
+        <v>1962</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1206,10 +1224,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>1918</v>
@@ -1218,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1226,19 +1244,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29">
         <v>1916</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1246,19 +1264,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1266,19 +1284,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>1867</v>
+        <v>1835</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1286,19 +1304,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>1817</v>
+        <v>1937</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3266</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1306,19 +1324,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>1909</v>
+        <v>1867</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1326,19 +1344,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34">
-        <v>1897</v>
+        <v>1909</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1346,19 +1364,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35">
-        <v>1808</v>
+        <v>1817</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1366,19 +1384,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36">
-        <v>1871</v>
+        <v>1897</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1386,19 +1404,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37">
-        <v>1946</v>
+        <v>1808</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1406,19 +1424,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38">
-        <v>1856</v>
+        <v>1944</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1426,19 +1444,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D39">
-        <v>1857</v>
+        <v>1871</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1446,19 +1464,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D40">
-        <v>1903</v>
+        <v>1856</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1466,19 +1484,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41">
-        <v>1884</v>
+        <v>1946</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1486,19 +1504,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42">
-        <v>1790</v>
+        <v>1903</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1506,19 +1524,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>1760</v>
+        <v>1857</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1526,19 +1544,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44">
-        <v>1676</v>
+        <v>1884</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1546,19 +1564,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D45">
-        <v>1894</v>
+        <v>1790</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1566,19 +1584,19 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1586,19 +1604,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47">
-        <v>1811</v>
+        <v>1760</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1606,19 +1624,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48">
-        <v>1886</v>
+        <v>1676</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1626,19 +1644,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49">
-        <v>1948</v>
+        <v>1889</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1646,19 +1664,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>1935</v>
+        <v>1886</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1666,19 +1684,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51">
-        <v>1921</v>
+        <v>1811</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1686,19 +1704,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1706,19 +1724,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C53">
+        <v>777</v>
       </c>
       <c r="D53">
-        <v>1959</v>
+        <v>1923</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1726,19 +1744,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
       </c>
       <c r="D54">
-        <v>1829</v>
+        <v>1959</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1746,19 +1764,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
       </c>
       <c r="D55">
-        <v>1926</v>
+        <v>1938</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>4868</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1766,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
@@ -1778,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1786,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -1798,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1806,19 +1824,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
       </c>
       <c r="D58">
-        <v>1848</v>
+        <v>1829</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1826,19 +1844,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
       </c>
       <c r="D59">
-        <v>1873</v>
+        <v>1922</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1846,19 +1864,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60">
-        <v>777</v>
+        <v>48</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
       </c>
       <c r="D60">
-        <v>1923</v>
+        <v>1935</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1866,19 +1884,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61">
-        <v>1919</v>
+        <v>1948</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1886,19 +1904,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D62">
-        <v>1823</v>
+        <v>1848</v>
       </c>
       <c r="E62">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1906,19 +1924,19 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D63">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1926,19 +1944,19 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D64">
-        <v>1900</v>
+        <v>1919</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1946,19 +1964,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D65">
-        <v>1911</v>
+        <v>1921</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1966,19 +1984,19 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66">
-        <v>1822</v>
+        <v>1900</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1986,19 +2004,19 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D67">
-        <v>1851</v>
+        <v>1870</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2006,19 +2024,19 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D68">
-        <v>1795</v>
+        <v>1911</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2026,19 +2044,19 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D69">
-        <v>1862</v>
+        <v>1822</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2046,19 +2064,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
         <v>73</v>
       </c>
       <c r="D70">
-        <v>1812</v>
+        <v>1823</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2066,19 +2084,19 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
       </c>
       <c r="D71">
-        <v>1932</v>
+        <v>1851</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2086,19 +2104,19 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
       </c>
       <c r="D72">
-        <v>1771</v>
+        <v>1795</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2106,19 +2124,19 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
         <v>76</v>
       </c>
       <c r="D73">
-        <v>1825</v>
+        <v>1862</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2126,19 +2144,19 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D74">
-        <v>1910</v>
+        <v>1771</v>
       </c>
       <c r="E74">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2146,19 +2164,19 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75">
-        <v>1912</v>
+        <v>1812</v>
       </c>
       <c r="E75">
-        <v>8955</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2166,19 +2184,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D76">
-        <v>1863</v>
+        <v>1932</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2186,19 +2204,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D77">
-        <v>1961</v>
+        <v>1939</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>5959</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2206,19 +2224,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D78">
-        <v>1769</v>
+        <v>1863</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2226,19 +2244,19 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D79">
-        <v>1661</v>
+        <v>1912</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>4416</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2246,19 +2264,19 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D80">
-        <v>1885</v>
+        <v>1825</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2266,19 +2284,19 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D81">
-        <v>1893</v>
+        <v>1961</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2286,19 +2304,19 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
         <v>86</v>
       </c>
       <c r="D82">
-        <v>1738</v>
+        <v>1910</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2306,19 +2324,19 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
         <v>87</v>
       </c>
       <c r="D83">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2326,19 +2344,19 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
         <v>88</v>
       </c>
       <c r="D84">
-        <v>1837</v>
+        <v>1661</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2346,19 +2364,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
       </c>
       <c r="D85">
-        <v>1872</v>
+        <v>1893</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2366,19 +2384,19 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
         <v>90</v>
       </c>
       <c r="D86">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="E86">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2386,19 +2404,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D87">
-        <v>1585</v>
+        <v>1738</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2406,19 +2424,19 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D88">
-        <v>1899</v>
+        <v>1837</v>
       </c>
       <c r="E88">
-        <v>64372</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2426,19 +2444,19 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D89">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2446,19 +2464,19 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D90">
-        <v>1616</v>
+        <v>1888</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2466,19 +2484,19 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
         <v>96</v>
       </c>
       <c r="D91">
-        <v>1895</v>
+        <v>1585</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2486,19 +2504,19 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>97</v>
       </c>
       <c r="D92">
-        <v>1841</v>
+        <v>1874</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2506,19 +2524,19 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D93">
-        <v>1697</v>
+        <v>1899</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>46466</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2526,19 +2544,119 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
         <v>99</v>
       </c>
       <c r="D94">
+        <v>1770</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95">
+        <v>1616</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96">
+        <v>1895</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97">
+        <v>1841</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98">
+        <v>1697</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99">
         <v>1777</v>
       </c>
-      <c r="E94">
-        <v>294</v>
-      </c>
-      <c r="F94" t="s">
-        <v>9</v>
+      <c r="E99">
+        <v>293</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
